--- a/ResultadoEleicoesDistritos/LISBOA_VILA FRANCA DE XIRA.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_VILA FRANCA DE XIRA.xlsx
@@ -597,64 +597,64 @@
         <v>34344</v>
       </c>
       <c r="H2" t="n">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="I2" t="n">
-        <v>3421</v>
+        <v>3351</v>
       </c>
       <c r="J2" t="n">
-        <v>14271</v>
+        <v>14101</v>
       </c>
       <c r="K2" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L2" t="n">
-        <v>3976</v>
+        <v>3784</v>
       </c>
       <c r="M2" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N2" t="n">
-        <v>2431</v>
+        <v>2521</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R2" t="n">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="S2" t="n">
-        <v>1519</v>
+        <v>1582</v>
       </c>
       <c r="T2" t="n">
-        <v>2443</v>
+        <v>2502</v>
       </c>
       <c r="U2" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="V2" t="n">
-        <v>21750</v>
+        <v>21929</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>22056</v>
+        <v>22109</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="n">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="AA2" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
